--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto Caro\Documents\GitHub\Automatizacion Excel Word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIGSA\Documents\GitHub\Automatizacion-Excel-Word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACD381C-D024-479F-882F-63F8C4601FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93116C5D-5FE6-4FE4-A953-CC98231E22B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="0" windowWidth="10800" windowHeight="12900" xr2:uid="{8B264212-EE36-4879-9F40-23F83C6DD4F8}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8B264212-EE36-4879-9F40-23F83C6DD4F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,43 +36,649 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>4600020291-00000-000EL-00014</t>
-  </si>
-  <si>
-    <t>4600020291-02700-100AT-00030</t>
-  </si>
-  <si>
-    <t>4600020291-02700-100AT-00031</t>
-  </si>
-  <si>
-    <t>4600020291-02700-100AT-00032</t>
-  </si>
-  <si>
-    <t>4600020291-02700-100AT-00033</t>
-  </si>
-  <si>
-    <t>4600020291-02700-100AT-00034</t>
-  </si>
-  <si>
-    <t>4600020291-02700-100AT-00035</t>
-  </si>
-  <si>
-    <t>4600020291-02300-205EL-00005</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="211">
   <si>
     <t>Carpeta</t>
   </si>
   <si>
     <t>Archivo</t>
+  </si>
+  <si>
+    <t>IG2-137731</t>
+  </si>
+  <si>
+    <t>IG2-137733</t>
+  </si>
+  <si>
+    <t>IG8-137723</t>
+  </si>
+  <si>
+    <t>IM2-69439</t>
+  </si>
+  <si>
+    <t>IM4-19799</t>
+  </si>
+  <si>
+    <t>IM4-19800</t>
+  </si>
+  <si>
+    <t>IM8-48854</t>
+  </si>
+  <si>
+    <t>IM8-48860</t>
+  </si>
+  <si>
+    <t>IM8-48861</t>
+  </si>
+  <si>
+    <t>IM8-49723</t>
+  </si>
+  <si>
+    <t>IM8-62198</t>
+  </si>
+  <si>
+    <t>IM8-62199</t>
+  </si>
+  <si>
+    <t>IM8-62200</t>
+  </si>
+  <si>
+    <t>IM8-62201</t>
+  </si>
+  <si>
+    <t>IM8-62202</t>
+  </si>
+  <si>
+    <t>IM8-62332</t>
+  </si>
+  <si>
+    <t>IM8-62783</t>
+  </si>
+  <si>
+    <t>IM8-62784</t>
+  </si>
+  <si>
+    <t>IM8-62785</t>
+  </si>
+  <si>
+    <t>IM8-62786</t>
+  </si>
+  <si>
+    <t>IM8-62787</t>
+  </si>
+  <si>
+    <t>IM8-62789</t>
+  </si>
+  <si>
+    <t>IM8-62790</t>
+  </si>
+  <si>
+    <t>IM8-62791</t>
+  </si>
+  <si>
+    <t>IM8-62793</t>
+  </si>
+  <si>
+    <t>IM8-62795</t>
+  </si>
+  <si>
+    <t>IM8-62796</t>
+  </si>
+  <si>
+    <t>IM8-63484</t>
+  </si>
+  <si>
+    <t>IM8-63485</t>
+  </si>
+  <si>
+    <t>IM8-63486</t>
+  </si>
+  <si>
+    <t>IM8-63487</t>
+  </si>
+  <si>
+    <t>IM8-63488</t>
+  </si>
+  <si>
+    <t>IM8-63489</t>
+  </si>
+  <si>
+    <t>IM8-63490</t>
+  </si>
+  <si>
+    <t>IM8-63491</t>
+  </si>
+  <si>
+    <t>IM8-63492</t>
+  </si>
+  <si>
+    <t>IM8-63493</t>
+  </si>
+  <si>
+    <t>IM8-63494</t>
+  </si>
+  <si>
+    <t>IM8-63495</t>
+  </si>
+  <si>
+    <t>IM8-63496</t>
+  </si>
+  <si>
+    <t>IM8-63498</t>
+  </si>
+  <si>
+    <t>IM8-63499</t>
+  </si>
+  <si>
+    <t>IM8-63500</t>
+  </si>
+  <si>
+    <t>IM8-63501</t>
+  </si>
+  <si>
+    <t>IM8-63502</t>
+  </si>
+  <si>
+    <t>IM8-69007</t>
+  </si>
+  <si>
+    <t>IM8-69126</t>
+  </si>
+  <si>
+    <t>IM8-70014</t>
+  </si>
+  <si>
+    <t>IM8-70015</t>
+  </si>
+  <si>
+    <t>IM8-71097 (4501770690-70200-400AT-00001)</t>
+  </si>
+  <si>
+    <t>IM8-71440 (4501770690-70200-100AT-00016)</t>
+  </si>
+  <si>
+    <t>IM8-71656 (4501770690-06500-206EL-00001)</t>
+  </si>
+  <si>
+    <t>IM8-76972 (4501732138-02381-200AT-00001)</t>
+  </si>
+  <si>
+    <t>IM8-76974 (4501732138-02381-202AT-00001)</t>
+  </si>
+  <si>
+    <t>IM8-76986 (4501732138-02381-100EL-00003)</t>
+  </si>
+  <si>
+    <t>IM8-76987 (4501732138-02381-100EL-00004)</t>
+  </si>
+  <si>
+    <t>IM8-76988 (4501732138-02381-100EL-00005)</t>
+  </si>
+  <si>
+    <t>IM8-76992 (4501732138-02381-202EL-00003)</t>
+  </si>
+  <si>
+    <t>IM8-77012 (4501732138-02381-100ME-00006)</t>
+  </si>
+  <si>
+    <t>IM8-77034 (4501732138-02381-300ME-00020)</t>
+  </si>
+  <si>
+    <t>IM8-77127 (4501732138-02381-202EL-00005)</t>
+  </si>
+  <si>
+    <t>IM8-78011</t>
+  </si>
+  <si>
+    <t>IM8-78012</t>
+  </si>
+  <si>
+    <t>IM8-78013</t>
+  </si>
+  <si>
+    <t>IM8-78020</t>
+  </si>
+  <si>
+    <t>IM8-78021</t>
+  </si>
+  <si>
+    <t>IM8-78022</t>
+  </si>
+  <si>
+    <t>IM8-78303 (T20M400-02000-212EL-00001)</t>
+  </si>
+  <si>
+    <t>IM8-81335 (T20M400-02000-100EL-00002)</t>
+  </si>
+  <si>
+    <t>IM8-81336 (T20M400-02000-202EL-00001)</t>
+  </si>
+  <si>
+    <t>IM8-81784 (T20M400-06500-212EL-00007)</t>
+  </si>
+  <si>
+    <t>IM8-81785 (T20M400-06500-212EL-00008)</t>
+  </si>
+  <si>
+    <t>IM8-81941 (T20M400-06500-206EL-00007)</t>
+  </si>
+  <si>
+    <t>IM8-81942 (T20M400-06500-206EL-00008)</t>
+  </si>
+  <si>
+    <t>IM8-81954 (T20M400-02313-202EL-00004)</t>
+  </si>
+  <si>
+    <t>IM8-82067 (T20M401-02153-204EL-00002)</t>
+  </si>
+  <si>
+    <t>IM8-82133 (T20M401-02712-221AT-00003)</t>
+  </si>
+  <si>
+    <t>IM8-82218 (T20M401-06514-202EL-00002)</t>
+  </si>
+  <si>
+    <t>IM8-82227 (T20M401-06514-100EL-00001)</t>
+  </si>
+  <si>
+    <t>IM8-83716 (T20M400-02313-205EL-00001)</t>
+  </si>
+  <si>
+    <t>IM8-83717 (T20M400-02313-205EL-00002)</t>
+  </si>
+  <si>
+    <t>IM8-83872 (4600020281-02731-221AT-00001)</t>
+  </si>
+  <si>
+    <t>IM8-83943 (4600020281-02000-400AT-00001)</t>
+  </si>
+  <si>
+    <t>IM8-83944 (4600020281-02000-400AT-00002)</t>
+  </si>
+  <si>
+    <t>IM8-83945 (4600020281-02000-400AT-00003)</t>
+  </si>
+  <si>
+    <t>IM8-83947 (4600020281-02000-400AT-00005)</t>
+  </si>
+  <si>
+    <t>IM8-83948 (4600020281-02000-400AT-00006)</t>
+  </si>
+  <si>
+    <t>IM8-83950 (4600020281-02000-400AT-00008)</t>
+  </si>
+  <si>
+    <t>IM8-83962 (4600020281-02000-400AT-00013)</t>
+  </si>
+  <si>
+    <t>IM8-83964 (4600020281-02000-400AT-00014)</t>
+  </si>
+  <si>
+    <t>IM8-83966 (4600020281-02000-400AT-00024)</t>
+  </si>
+  <si>
+    <t>IM8-83968 (4600020281-02000-400AT-00010)</t>
+  </si>
+  <si>
+    <t>IM8-83969 (4600020281-02000-400AT-00023)</t>
+  </si>
+  <si>
+    <t>IM8-83983 (4600020281-02000-400AT-00030)</t>
+  </si>
+  <si>
+    <t>IM8-84427 (T20M400-02380-104ME-00001)</t>
+  </si>
+  <si>
+    <t>IM8-84428 (T20M400-02380-104ME-00002)</t>
+  </si>
+  <si>
+    <t>IM8-84436 (T20M400-02380-104ME-00003)</t>
+  </si>
+  <si>
+    <t>IM8-84437 (T20M400-02380-104ME-00004)</t>
+  </si>
+  <si>
+    <t>IM8-84438 (T20M400-02380-104ME-00005)</t>
+  </si>
+  <si>
+    <t>IM8-85410 (4600020281-02360-202EL-00001)</t>
+  </si>
+  <si>
+    <t>IM8-85411 (4600020281-02360-202EL-00002)</t>
+  </si>
+  <si>
+    <t>IM8-85492 (4600020281-02360-205EL-00001)</t>
+  </si>
+  <si>
+    <t>IM8-85493 (4600020281-02360-205EL-00002)</t>
+  </si>
+  <si>
+    <t>IM8-85514 (4600020281-02360-205EL-00004)</t>
+  </si>
+  <si>
+    <t>IM8-85524 (4600020281-02360-205EL-00005)</t>
+  </si>
+  <si>
+    <t>IM8-85643 (T20M400-06730-235CO-00001)</t>
+  </si>
+  <si>
+    <t>IM8-85817 (T20M400-02000-200AT-00003)</t>
+  </si>
+  <si>
+    <t>IM8-85819 (T20M400-02000-200AT-00005)</t>
+  </si>
+  <si>
+    <t>IM8-85877 (4600020281-02218-202AT-00001)</t>
+  </si>
+  <si>
+    <t>IM8-85880 (4600020281-02318-205AT-00002)</t>
+  </si>
+  <si>
+    <t>IM8-85899 (4600020281-02318-205AT-00022)</t>
+  </si>
+  <si>
+    <t>IM8-85907 (4600020281-02318-202AT-00006)</t>
+  </si>
+  <si>
+    <t>IM8-86003 (4600020281-02000-002EL-00001)</t>
+  </si>
+  <si>
+    <t>IM8-86017 (4600020281-02000-002EL-00002)</t>
+  </si>
+  <si>
+    <t>IM8-86125 (4600020281-02313-104ME-0005)</t>
+  </si>
+  <si>
+    <t>IM8-86126 (4600020281-02313-104ME-0006)</t>
+  </si>
+  <si>
+    <t>IM8-86525 (4600020291-00000-000EL-00011)</t>
+  </si>
+  <si>
+    <t>IM8-90691 (T20M400-02218-205CO-00005)</t>
+  </si>
+  <si>
+    <t>IM8-91306 (4600020281-02217-212EL-00001)</t>
+  </si>
+  <si>
+    <t>IM8-91419 (4600020281-70210-209AT-00002)</t>
+  </si>
+  <si>
+    <t>IM8-93512 (4600020281-02360-212EL-00001)</t>
+  </si>
+  <si>
+    <t>IM8-93513 (4600020281-02360-212EL-00002)</t>
+  </si>
+  <si>
+    <t>IM8-93568 (T20M400-02313-200EL-00009)</t>
+  </si>
+  <si>
+    <t>IM8-93744 (T20M400-02311-100CO-00004)</t>
+  </si>
+  <si>
+    <t>IM8-93758 (4600020281-06700-205CO-00001)</t>
+  </si>
+  <si>
+    <t>IM8-93830 (4600020281-02217-205EL-00009)</t>
+  </si>
+  <si>
+    <t>IM8-93831 (4600020281-02217-100EL-00011)</t>
+  </si>
+  <si>
+    <t>IM8-93838 (4600020281-02218-205AT-00019)</t>
+  </si>
+  <si>
+    <t>IM8-93869 (T20M400-02800-208AT-00001)</t>
+  </si>
+  <si>
+    <t>IM8-95014 (4600020281-02217-202EL-00001)</t>
+  </si>
+  <si>
+    <t>IM8-95113 (T20M400-02217-202EL-00004)</t>
+  </si>
+  <si>
+    <t>IM8-95158</t>
+  </si>
+  <si>
+    <t>IM8-95213</t>
+  </si>
+  <si>
+    <t>IM8-95941</t>
+  </si>
+  <si>
+    <t>IM8-95942</t>
+  </si>
+  <si>
+    <t>IM8-95943</t>
+  </si>
+  <si>
+    <t>IM8-95944</t>
+  </si>
+  <si>
+    <t>IM8-95945</t>
+  </si>
+  <si>
+    <t>IM8-95946</t>
+  </si>
+  <si>
+    <t>IM8-95968</t>
+  </si>
+  <si>
+    <t>IM8-97248</t>
+  </si>
+  <si>
+    <t>IM8-97249</t>
+  </si>
+  <si>
+    <t>IM8-99333 (4600020281-02217-202EL-00002)</t>
+  </si>
+  <si>
+    <t>IM8-99374 (4600020281-02217-206EL-00001)</t>
+  </si>
+  <si>
+    <t>IM8-99385 (4600020281-02217-205EL-00010)</t>
+  </si>
+  <si>
+    <t>IM8-99386 (4600020281-02217-100EL-00012)</t>
+  </si>
+  <si>
+    <t>IM8-101343 (4600029431-02313-205EL-00007)</t>
+  </si>
+  <si>
+    <t>IM8-101354 (4600029431-02313-205EL-00010)</t>
+  </si>
+  <si>
+    <t>IM8-101355 (4600029431-02313-205EL-00011)</t>
+  </si>
+  <si>
+    <t>IM8-101358 (4600029431-02300-100EL-00003)</t>
+  </si>
+  <si>
+    <t>IM8-101359 (4600029431-02300-100EL-00004)</t>
+  </si>
+  <si>
+    <t>IM2-69440</t>
+  </si>
+  <si>
+    <t>IM2-69443</t>
+  </si>
+  <si>
+    <t>IM2-69516</t>
+  </si>
+  <si>
+    <t>IM2-69517</t>
+  </si>
+  <si>
+    <t>IM2-69518</t>
+  </si>
+  <si>
+    <t>IM2-69519</t>
+  </si>
+  <si>
+    <t>IM8-68902</t>
+  </si>
+  <si>
+    <t>IM8-68903</t>
+  </si>
+  <si>
+    <t>IM8-68971</t>
+  </si>
+  <si>
+    <t>IM8-68972</t>
+  </si>
+  <si>
+    <t>IM8-68973</t>
+  </si>
+  <si>
+    <t>IM8-68974</t>
+  </si>
+  <si>
+    <t>IM8-68975</t>
+  </si>
+  <si>
+    <t>IM8-69023</t>
+  </si>
+  <si>
+    <t>IM8-69034</t>
+  </si>
+  <si>
+    <t>IM8-69035</t>
+  </si>
+  <si>
+    <t>IM8-69042</t>
+  </si>
+  <si>
+    <t>IM8-69090</t>
+  </si>
+  <si>
+    <t>IM8-69091</t>
+  </si>
+  <si>
+    <t>IM8-69092</t>
+  </si>
+  <si>
+    <t>IM8-69093</t>
+  </si>
+  <si>
+    <t>IM8-69094</t>
+  </si>
+  <si>
+    <t>IM8-69230</t>
+  </si>
+  <si>
+    <t>IM8-69300</t>
+  </si>
+  <si>
+    <t>IM8-69314</t>
+  </si>
+  <si>
+    <t>IM8-69319</t>
+  </si>
+  <si>
+    <t>IM8-69328</t>
+  </si>
+  <si>
+    <t>IM8-69329</t>
+  </si>
+  <si>
+    <t>IM8-69802</t>
+  </si>
+  <si>
+    <t>4501732138-02381-ESPAT-00002</t>
+  </si>
+  <si>
+    <t>4501732138-02381-HDDME-00002</t>
+  </si>
+  <si>
+    <t>C-29048-CYGSA-ELE-ES-0087</t>
+  </si>
+  <si>
+    <t>C-29048-CYGSA-ELE-ET-0019</t>
+  </si>
+  <si>
+    <t>C-29048-CYGSA-ELE-ET-0020</t>
+  </si>
+  <si>
+    <t>C-29048-CYGSA-ELE-ET-0021</t>
+  </si>
+  <si>
+    <t>C-29048-CYGSA-INS-ET-0039</t>
+  </si>
+  <si>
+    <t>C-29048-CYGSA-INS-ET-0044</t>
+  </si>
+  <si>
+    <t>C-29048-CYGSA-MEC-ET-0015</t>
+  </si>
+  <si>
+    <t>Estándar Salas Activación F&amp;S</t>
+  </si>
+  <si>
+    <t>GMIN-GRL-RE-003</t>
+  </si>
+  <si>
+    <t>GMIN-GRL-RE-008</t>
+  </si>
+  <si>
+    <t>GOBM-80580-PROPM-00001</t>
+  </si>
+  <si>
+    <t>GSSO-DS-RE-001</t>
+  </si>
+  <si>
+    <t>GSYS-SE-RE-003</t>
+  </si>
+  <si>
+    <t>MONTAJE E INSTALACIÓN SISTEMA N-CONNEX</t>
+  </si>
+  <si>
+    <t>NCC 21</t>
+  </si>
+  <si>
+    <t>NCC 40</t>
+  </si>
+  <si>
+    <t>SIGO-P-008</t>
+  </si>
+  <si>
+    <t>ST-TI-019</t>
+  </si>
+  <si>
+    <t>ST-TI-034</t>
+  </si>
+  <si>
+    <t>ST-TI-042</t>
+  </si>
+  <si>
+    <t>Planos Modulo 2</t>
+  </si>
+  <si>
+    <t>Planos Modulo 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR Nº PM – 01  00 </t>
+  </si>
+  <si>
+    <t>ESP. Nº PM – 07  00</t>
+  </si>
+  <si>
+    <t>Documentos Modulo 1</t>
+  </si>
+  <si>
+    <t>ESP. Nº PM-103 01</t>
+  </si>
+  <si>
+    <t>Documentos Modulo 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +690,30 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,16 +736,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{58E2D90E-19C8-4087-A55C-20347F3EDC0F}"/>
+    <cellStyle name="Millares 14" xfId="2" xr:uid="{35E65889-FB8E-4B1E-8B19-35D3BFE161B4}"/>
+    <cellStyle name="Millares 14 2" xfId="5" xr:uid="{BF2CB926-9B48-4559-9C4E-EC551B7631DD}"/>
+    <cellStyle name="Millares 2" xfId="4" xr:uid="{853911CE-5F99-46DB-9B55-4A2E29E84854}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 7" xfId="3" xr:uid="{CDB32640-704C-4B33-ACF7-C131E38DEA17}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -131,7 +772,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -447,93 +1088,2307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F459D6C-B0B4-4D9B-BE87-AE9DC738CD90}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>205</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>205</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>205</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>205</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>205</v>
+      </c>
+      <c r="B112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>205</v>
+      </c>
+      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>205</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>205</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>205</v>
+      </c>
+      <c r="B117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>205</v>
+      </c>
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>205</v>
+      </c>
+      <c r="B119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>205</v>
+      </c>
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>205</v>
+      </c>
+      <c r="B121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>205</v>
+      </c>
+      <c r="B122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>205</v>
+      </c>
+      <c r="B123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>205</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>205</v>
+      </c>
+      <c r="B125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>205</v>
+      </c>
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>205</v>
+      </c>
+      <c r="B127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>205</v>
+      </c>
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>205</v>
+      </c>
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>205</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>205</v>
+      </c>
+      <c r="B131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>205</v>
+      </c>
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>205</v>
+      </c>
+      <c r="B133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>205</v>
+      </c>
+      <c r="B135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>205</v>
+      </c>
+      <c r="B136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>205</v>
+      </c>
+      <c r="B137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>205</v>
+      </c>
+      <c r="B138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>205</v>
+      </c>
+      <c r="B139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>205</v>
+      </c>
+      <c r="B140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>205</v>
+      </c>
+      <c r="B141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>205</v>
+      </c>
+      <c r="B142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>205</v>
+      </c>
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>205</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>205</v>
+      </c>
+      <c r="B145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>205</v>
+      </c>
+      <c r="B146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>205</v>
+      </c>
+      <c r="B147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>205</v>
+      </c>
+      <c r="B148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>205</v>
+      </c>
+      <c r="B149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>205</v>
+      </c>
+      <c r="B150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>205</v>
+      </c>
+      <c r="B151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>205</v>
+      </c>
+      <c r="B152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>205</v>
+      </c>
+      <c r="B153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>208</v>
+      </c>
+      <c r="B154" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>208</v>
+      </c>
+      <c r="B155" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>208</v>
+      </c>
+      <c r="B156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>208</v>
+      </c>
+      <c r="B157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>208</v>
+      </c>
+      <c r="B158" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>208</v>
+      </c>
+      <c r="B159" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>208</v>
+      </c>
+      <c r="B160" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>208</v>
+      </c>
+      <c r="B161" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>208</v>
+      </c>
+      <c r="B162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>208</v>
+      </c>
+      <c r="B163" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>208</v>
+      </c>
+      <c r="B164" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>208</v>
+      </c>
+      <c r="B165" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>208</v>
+      </c>
+      <c r="B166" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>208</v>
+      </c>
+      <c r="B167" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>208</v>
+      </c>
+      <c r="B168" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>208</v>
+      </c>
+      <c r="B169" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>208</v>
+      </c>
+      <c r="B170" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>208</v>
+      </c>
+      <c r="B171" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>208</v>
+      </c>
+      <c r="B172" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>208</v>
+      </c>
+      <c r="B173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>208</v>
+      </c>
+      <c r="B174" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>208</v>
+      </c>
+      <c r="B175" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>208</v>
+      </c>
+      <c r="B176" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>208</v>
+      </c>
+      <c r="B177" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>208</v>
+      </c>
+      <c r="B178" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>204</v>
+      </c>
+      <c r="B179" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>204</v>
+      </c>
+      <c r="B180" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>204</v>
+      </c>
+      <c r="B181" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>204</v>
+      </c>
+      <c r="B182" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>204</v>
+      </c>
+      <c r="B183" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>204</v>
+      </c>
+      <c r="B184" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>204</v>
+      </c>
+      <c r="B185" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>204</v>
+      </c>
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>204</v>
+      </c>
+      <c r="B187" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>204</v>
+      </c>
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>204</v>
+      </c>
+      <c r="B189" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>204</v>
+      </c>
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>204</v>
+      </c>
+      <c r="B191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>204</v>
+      </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>204</v>
+      </c>
+      <c r="B194" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>204</v>
+      </c>
+      <c r="B195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>204</v>
+      </c>
+      <c r="B196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>204</v>
+      </c>
+      <c r="B197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>204</v>
+      </c>
+      <c r="B198" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>204</v>
+      </c>
+      <c r="B207" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>204</v>
+      </c>
+      <c r="B208" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>204</v>
+      </c>
+      <c r="B209" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>204</v>
+      </c>
+      <c r="B210" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>204</v>
+      </c>
+      <c r="B211" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>204</v>
+      </c>
+      <c r="B212" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>204</v>
+      </c>
+      <c r="B213" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>204</v>
+      </c>
+      <c r="B214" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>204</v>
+      </c>
+      <c r="B215" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>204</v>
+      </c>
+      <c r="B216" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>204</v>
+      </c>
+      <c r="B217" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>204</v>
+      </c>
+      <c r="B218" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>204</v>
+      </c>
+      <c r="B219" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>204</v>
+      </c>
+      <c r="B220" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>204</v>
+      </c>
+      <c r="B221" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>204</v>
+      </c>
+      <c r="B222" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>204</v>
+      </c>
+      <c r="B223" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>204</v>
+      </c>
+      <c r="B224" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>204</v>
+      </c>
+      <c r="B225" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>204</v>
+      </c>
+      <c r="B226" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>204</v>
+      </c>
+      <c r="B227" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>204</v>
+      </c>
+      <c r="B228" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>204</v>
+      </c>
+      <c r="B229" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>204</v>
+      </c>
+      <c r="B230" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>204</v>
+      </c>
+      <c r="B231" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>204</v>
+      </c>
+      <c r="B232" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>204</v>
+      </c>
+      <c r="B233" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>204</v>
+      </c>
+      <c r="B234" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>204</v>
+      </c>
+      <c r="B235" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>204</v>
+      </c>
+      <c r="B236" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>204</v>
+      </c>
+      <c r="B237" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>204</v>
+      </c>
+      <c r="B238" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>204</v>
+      </c>
+      <c r="B239" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>204</v>
+      </c>
+      <c r="B240" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>204</v>
+      </c>
+      <c r="B241" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>204</v>
+      </c>
+      <c r="B242" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>204</v>
+      </c>
+      <c r="B243" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>204</v>
+      </c>
+      <c r="B244" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>204</v>
+      </c>
+      <c r="B245" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>204</v>
+      </c>
+      <c r="B246" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>204</v>
+      </c>
+      <c r="B247" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>204</v>
+      </c>
+      <c r="B248" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>204</v>
+      </c>
+      <c r="B249" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>204</v>
+      </c>
+      <c r="B250" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>204</v>
+      </c>
+      <c r="B251" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>204</v>
+      </c>
+      <c r="B252" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>204</v>
+      </c>
+      <c r="B253" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>204</v>
+      </c>
+      <c r="B254" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>204</v>
+      </c>
+      <c r="B255" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>204</v>
+      </c>
+      <c r="B256" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>204</v>
+      </c>
+      <c r="B257" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>204</v>
+      </c>
+      <c r="B258" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>204</v>
+      </c>
+      <c r="B259" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>204</v>
+      </c>
+      <c r="B260" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>204</v>
+      </c>
+      <c r="B261" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>204</v>
+      </c>
+      <c r="B262" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>204</v>
+      </c>
+      <c r="B263" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>204</v>
+      </c>
+      <c r="B264" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>204</v>
+      </c>
+      <c r="B265" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>210</v>
+      </c>
+      <c r="B266" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>210</v>
+      </c>
+      <c r="B267" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>210</v>
+      </c>
+      <c r="B268" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>210</v>
+      </c>
+      <c r="B269" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>210</v>
+      </c>
+      <c r="B270" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>210</v>
+      </c>
+      <c r="B271" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>210</v>
+      </c>
+      <c r="B272" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>210</v>
+      </c>
+      <c r="B273" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>210</v>
+      </c>
+      <c r="B274" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>210</v>
+      </c>
+      <c r="B275" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>210</v>
+      </c>
+      <c r="B276" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>210</v>
+      </c>
+      <c r="B277" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>210</v>
+      </c>
+      <c r="B278" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>210</v>
+      </c>
+      <c r="B279" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>210</v>
+      </c>
+      <c r="B280" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>210</v>
+      </c>
+      <c r="B281" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>210</v>
+      </c>
+      <c r="B282" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>210</v>
+      </c>
+      <c r="B283" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>210</v>
+      </c>
+      <c r="B284" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>210</v>
+      </c>
+      <c r="B285" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>210</v>
+      </c>
+      <c r="B286" t="s">
+        <v>203</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>